--- a/Downer - Otago/27618/res_561469-ITP-0001 - Culverts (DG-QA-TP018).xlsx
+++ b/Downer - Otago/27618/res_561469-ITP-0001 - Culverts (DG-QA-TP018).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer - Otago\27618\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3372B-9201-4A80-A8BD-7BC57FB7BF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F04C174-A06C-433A-A7D4-52844A785059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="1320" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="2010" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -78,6 +78,525 @@
   </si>
   <si>
     <t>561469-ITP-0001 - Culverts (DG-QA-TP018)</t>
+  </si>
+  <si>
+    <t>SECTION 3 – RECEIVING INSPECTIONS</t>
+  </si>
+  <si>
+    <t>SECTION 4 – IN-PROCESS INSPECTIONS</t>
+  </si>
+  <si>
+    <t>SECTION 5 – FINAL INSPECTION AND HANDOVER</t>
+  </si>
+  <si>
+    <t>3.1 - Review all Drawings and Documents</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Review all drawings and documentation provided to the Contractor.</t>
+  </si>
+  <si>
+    <t>Verifying Document - ITP</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to the commencement of Works</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual</t>
+  </si>
+  <si>
+    <t>Inspection: Key - R</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - PM/QE</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Prior to the commencement of Works it must be ensure that all necessary documentation has been provided.</t>
+  </si>
+  <si>
+    <t>3.2 - Setting Out Levels and Alignment</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - All setting out shall be performed by or under the control of a licensed surveyor, who shall certify the accuracy of key dimensions of the as constructed works. Specs 1000: 3.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Levels and allignment Set Out matches marks shown on the Drawings, 2D data and linework provided or agreed with the Engineer </t>
+  </si>
+  <si>
+    <t>Verifying Document - Compliance surveys or spot checks</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, Instrumental</t>
+  </si>
+  <si>
+    <t>Inspection: Key - H</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SP/QE/SV</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>3.3 - Service location and Hydro Vacumming</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Physically locate the services inside and close to the alignment area and levels depth. Specs 1131: 15.2.1</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All services identified in B4UDig, plans and mark outs has been physically located</t>
+  </si>
+  <si>
+    <t>Verifying Document - Plans Mark out, photos</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - CR</t>
+  </si>
+  <si>
+    <t>3.4 - Pipes Delivery</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Pipes and pipe fittings shall be of the material, pipe class and joint type nominated on the Drawings. Specs 1131: 14.1 and Drawings C152 - C153</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The charasteritics of the pipes delivered to site match the corresponding drawings details or approved equivalent</t>
+  </si>
+  <si>
+    <t>Verifying Document - Delivery docket, Supplier certificate, Photo</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - QE/CR</t>
+  </si>
+  <si>
+    <t>Inspection: Key - C</t>
+  </si>
+  <si>
+    <t>3.5 - Drainage Pipes Delivery</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Drainage pipes shall be slotted smooth bore PVC or PE pipes, or corrugated polyethylene subsoil drainage pipes in accordance with NZTA F/5 for light duty applications or NZTA F2 for heay-duty applications. Specs 1131: 14.8</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The charasteritics of the pipes delivered to site match the specifications and the duty requirments or approved equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 - Subsoil drain bedding </t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Material used for bedding, duct surround and haunching shall be selected granular, non cohesive, free draining material with grading between 0.6mm and 19mm. Maximum Dry Density (MDD) and Optimum Water Content (OWC) of the aggregate must be provided. Specs 1131: 14.8</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Visual Inspection, Engineer approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Document - Delivery Docket, Laboratory test results </t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, Lab Test</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - QE/SP/MC</t>
+  </si>
+  <si>
+    <t>3.7 - Pipe Bedding Agregate</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Pipe bedding should be AP20 and in accordance with AS/NZS 2566.2. Maximum Dry Density (MDD) and Optimum Water Content (OWC) of the aggregate must be provided. Specs 1131: 14.9.1</t>
+  </si>
+  <si>
+    <t>3.8 - Drainage Aggregate</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Drainage aggregate shall be 19 mm uniformly graded, clean, durable aggregate having a crushing resistance of not less than 100 kN when tested in accordance with NZS 4407. Material used for backfilling the trench above any geotextile wrapping shall be free draining granular material. Specs 1131: 14.9.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Visual Inspection</t>
+  </si>
+  <si>
+    <t>3.9 - Backfill Aggregate</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Backfill aggregate should be GAP 65. Samples of backfill material should be tested in accordence of NZS 4402 to determine the MDD at OMC. The solid density of aggregate should be tested in accordance with NZS 4407. Specs 1131: 16.1.1</t>
+  </si>
+  <si>
+    <t>3.10 - Concrete Manhole</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Precast concrete manholes shall comply with NZS 3106. Specs 1131: 14.5</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Manhole charasteritics Match NZS 3106</t>
+  </si>
+  <si>
+    <t>3.11 - Wingwalls</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Precast wingwalls as specified in Drawings or equivalent approved. Drawings C122 - C123</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Procured precast wingwall comply with specifications</t>
+  </si>
+  <si>
+    <t>Verifying Document - Delivery docket, Photo, Engineer approval</t>
+  </si>
+  <si>
+    <t>3.12 - Geotextile</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Geotextile underlay bidim A37 or similar approved material. Drawings C122 - C123</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Procured Geotextile comply with specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13 - Backfill Trail Compaction Testing </t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Prior to commencement of fill compaction. Trial compaction plateau test should be conducted under presense of Engineer or principal. Methodology to be confirmed in advance generally in accordance with TNZ B/02 specification. Specs 1131: 16.1.1, 16.1.2, 16.1.4.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Compaction Value ≥ Specification Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Document - Nuclear Density Meter (NDM) Results Sheet, or Clegg Hamer test records </t>
+  </si>
+  <si>
+    <t>Frequency - Prior to the commencement of Works.</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - On site Test</t>
+  </si>
+  <si>
+    <t>4.1 - Site Clearance</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - The material obtained from site celarance must be dumped at an approved location outside the Site. Specs 1100: 5.1</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Location approved by the Engineer</t>
+  </si>
+  <si>
+    <t>Verifying Document - Dumping Docket</t>
+  </si>
+  <si>
+    <t>Frequency - After site clearance</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Document Check</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - QE/SP/CR</t>
+  </si>
+  <si>
+    <t>4.2 - Trees Removal</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - No tree shall be cut down until the Engineer has given written authorisation for such work to commence. Specs 1100: 6.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Engineer Approval</t>
+  </si>
+  <si>
+    <t>Verifying Document - Engineer Writen Authorisation</t>
+  </si>
+  <si>
+    <t>Frequency - Before remove any tree</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Client Consultation</t>
+  </si>
+  <si>
+    <t>4.3 - Removal of Topsoil</t>
+  </si>
+  <si>
+    <t>Frequency - Before Topsoil Removal</t>
+  </si>
+  <si>
+    <t>4.4 - Hazardous Waste and Contaminated soils</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Contaminated soils (Type H materials) encountered shall be treated and/or disposed off site in accordance with statutory requirements. Specs 1110: 9.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Dumping site approval for contamiantion type</t>
+  </si>
+  <si>
+    <t>Frequency - If constaminated soils are found</t>
+  </si>
+  <si>
+    <t>4.5 - Trench Excavation</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Trench width and pipe clearance to walls comply with requirements</t>
+  </si>
+  <si>
+    <t>Verifying Document - Installation Check Sheet</t>
+  </si>
+  <si>
+    <t>Frequency - During trench excavation</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, Measurement Check</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - QE/SP</t>
+  </si>
+  <si>
+    <t>4.6 - Pipe Bedding and Haunching</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Bedding and Haunching for flexible pipes should be in accordance with AS/NZS 2556.2 and have minimum embedment zone as shown in tabke from Specs 1131: 15.2.8.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Bedding and haunching high and with comply width requirements</t>
+  </si>
+  <si>
+    <t>Frequency - During bedding and haunching installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7 - Pipe Line and Level </t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Pipes shall be laid true to the design line and level within the tolerances specified in Specs 1131: 15.9. Invert levels shall take precedence over depths. Specs 1131: 15.3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Pipe levels are within the tolerance and according to the drawings, 2D data and linework provided or agreed with the Engineer </t>
+  </si>
+  <si>
+    <t>Verifying Document - Grade Check sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency - During pipe installation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8 - PE Pipe Installation </t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Buried PE pipes shall be installed in accordance with AS/NZS 2033 and AS/NZA 2566.2, as applicable. Specs 1131: 15.3.2.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - PE Pipe Joints and Intallation comply with standard and specifications</t>
+  </si>
+  <si>
+    <t>Verifying Document - Pipe welds QA records, welding checksheets and machine printouts, destructive tests results (if required)</t>
+  </si>
+  <si>
+    <t>Frequency - Per weld, and during pipe installation</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, Document Check, Lab test (if required)</t>
+  </si>
+  <si>
+    <t>4.9 - PVC Pipe Installation</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Buried PVC pipes shall be installed in accordance with AS/NZS 2032 and AS/NZS 2566.2, as applicable. Fusible PVC pipes shall be welded and installed in accordance with the pipe manufacturers recommendations. Specs 1131: 15.3.1.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - PVC Pipes Joints and Intallation comply with standard and specifications</t>
+  </si>
+  <si>
+    <t>Verifying Document - Methodology, Pipe welds QA records, welding checksheets and machine printouts, destructive tests results (if required)</t>
+  </si>
+  <si>
+    <t>Frequency - Per joint or weld, and during pipe installation</t>
+  </si>
+  <si>
+    <t>4.10 - Precast Concrete Pipe Installation</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Joints between precast pipe units shall be self-centering and shall be sealed with butyl mastic or similar approved to form a watertight joint. Concrete pipes shall be installed in accordance with AS/NZS 3725. Specs 1131: 15.3.6</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Precast concrete pipes Joints and Intallation comply with standard and specifications</t>
+  </si>
+  <si>
+    <t>Verifying Document - Methodology. QA records</t>
+  </si>
+  <si>
+    <t>Frequency - Per joint, and during pipe installation</t>
+  </si>
+  <si>
+    <t>4.11 - Aggregate Compaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Document - Depending of Pipe material or Aggregate: CBR Checksheet, Nuclear Density Meter (NDM) Results Sheet, Clegg Hamer test records </t>
+  </si>
+  <si>
+    <t>Frequency - Every 50m of trench (not confirmed) or specified by Engineer</t>
+  </si>
+  <si>
+    <t>4.12 - Backfill Compaction</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Selected fill within 0.8m depth from finished surface shall be AP 65. Subgrade and subbase shall be compacted in layers no greater than 200 mm thick unless otherwise agreed with the Engineer. Under carriageway basecourse shall be compacted in layers no greater than 150mm thick unless otherwise aggred with the engineer. Specs 1131: 15.4.3.2, 15.4.3.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Dry Density ≥ 95% MDD (Under Carriageway). Dry Density ≥ 90% MDD (Outside Carriageway)</t>
+  </si>
+  <si>
+    <t>Frequency - Every 20m of trench, each layer (Under Carriageway). Every 50m of trench, each layer (Outside Carriageway)</t>
+  </si>
+  <si>
+    <t>4.13 - Cutting pipes</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Where pipes need to be cut to form non-stardard lengths, pipes shall be cut by a method which complies with manufacturers recommendations and provides a clean square profile. Specs 1131: 15.3.7</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pipe cutted up to the specifications</t>
+  </si>
+  <si>
+    <t>Verifying Document - Methodology, Photos</t>
+  </si>
+  <si>
+    <t>4.14 - Manhole Benching</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Benching built up to the specifications</t>
+  </si>
+  <si>
+    <t>Verifying Document - Methodology, Delivery Dockey, Photos</t>
+  </si>
+  <si>
+    <t>Frequency - During benching contruction</t>
+  </si>
+  <si>
+    <t>4.15 - Subsoil Drains Installation</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Drains shall be constructed, geotextile layed and backfill carried out in accordance with TNZ Specification F/6. Specs 1131: 15.7</t>
+  </si>
+  <si>
+    <t>Frequency - During Drains Installation</t>
+  </si>
+  <si>
+    <t>4.16 - Topsoiling and grassing</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Topsoil shall be used to dress areas disturbed by the contrat works to a minimum thickness of 100mm. Grass seed shall be sown evenly over the prepared topsoil area. Specs 1131: 15.8.6</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Topsoil installed and grass seed spread in the specified rate and mixture.</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA records, Photos</t>
+  </si>
+  <si>
+    <t>Frequency - After compaction of final layer of backfill</t>
+  </si>
+  <si>
+    <t>4.17 - Rock Riprap Instllation</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Rock riprap shall comply with the dimensions and specifications shown in drawings. Drawings C123, C 152 - C155</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Rock rip rap intalling according dimensions and specifications shown in cross sections of project drawings</t>
+  </si>
+  <si>
+    <t>Verifying Document - Installation Check Sheet, QA records, Photos</t>
+  </si>
+  <si>
+    <t>Frequency - During rock riprap installation</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Topsoil shall be stockpiled in areas approved by the Engineer for this purpose. stockpiling operations must ensure the maximum utilisation of each area. Specs 1110: 9.4, TNZ F/1 Clause 4</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Trenches for flexible pipes shall be excavated within tollerances in table from Specs 1131: 15.2.5 unless otherwise stated.</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Compaction shall be as stated in Specs 1131: 15.4.4. For concrete pipes the verification testing of compaction shall use a method recommended in table 3 of the CPAA Technical Note on Installing Concrete Pipe and approved by the Engineer. Specs 1131: 15.3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Document - Nuclear Density Meter (NDM) Results Sheet or Clegg Hamer test records </t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Benching concrete shall have a crushing strength of 20MPa at 28 days. Semi-circular channels and fittings shall be placed in possition simultaneously with concrete benching and be embedded in true to grade level and line. All benching and sloping surfaces on manhole floor shall be rendered in 20mm thick 1:3 mortar and finished with steel trowel and rounded at corners. Specs 1131: 15.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Document - Methodology, TNZ Specifications F/6 and F/7, Photos, QA records </t>
+  </si>
+  <si>
+    <t>5.1 - As-built Drawings</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Two hard copies and one electronic copy of As-built drawings shall be prepared in draft and final versions following Schedule 1D in NZS4404:2010. Specs 1000: 3.9.2</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA records</t>
+  </si>
+  <si>
+    <t>Frequency - At completion</t>
+  </si>
+  <si>
+    <t>5.2 - Gravity Pipes Testing</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Stormwater pipes shall be by visual inspection for pipe diameters greater than 750mm and by water testing for diameters up to 750mm. Testing shall be in the presence of the engineer. Specs 1131: 16.2.1</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Records</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Test</t>
+  </si>
+  <si>
+    <t>5.3 - Manholes</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Manholes should be tested seperately to pipeline for water tightness up to lower rim of manhole cover frame. Testing shall be in the presence of the engineer. Specs 1131: 16.2.2.5</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - A maximum drop in water level over 30 min should not exceed 2mL/hr/mm of diameter/meter height of the manhole. Engineer Approval</t>
+  </si>
+  <si>
+    <t>Frequency - For every manhole installed (24hr prior notice to the engineer before test)</t>
+  </si>
+  <si>
+    <t>5.4 - CCTV Inspection</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - All pipelines shall pass a CCTV instpection. All pipelines shall be free of debris and flushed 24hrs prior to inspection. Specs 1131: 16.2.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - A pipeline will fail its inspection if:</t>
+  </si>
+  <si>
+    <t>– The pipe is horizontally misaligned or deformed by more than 5 % of the pipe diameter.</t>
+  </si>
+  <si>
+    <t>– The pipe has visible dips or ponding of water.</t>
+  </si>
+  <si>
+    <t>– The pipe has visible defects, such as open or displaced joints, defective or protruding laterals, cracked barrels or similar defects.</t>
+  </si>
+  <si>
+    <t>– There is evidence of infiltration at joints or laterals.</t>
+  </si>
+  <si>
+    <t>Verifying Document - CCTV footage and log sheets</t>
+  </si>
+  <si>
+    <t>5.5 - Surplus Materials and Refuse Disposal</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - All surplus, redundant and faulty materials must be removed from the Site and dispose of them in a safe and legal manner. Any demolition material or rubbish coming from the execution of the project must be removed as well. Specs 1000: 3.13.2</t>
+  </si>
+  <si>
+    <t>5.6 - Cleaning</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Completed items of construction about to be placed in service or occupied for their intended use must be properly and thoroughly cleaned of all foreign matter and other debris. Specs 1000: 3.13.3</t>
+  </si>
+  <si>
+    <t>Frequency - For every section of pipe installed (24hr prior notice to the engineer before test)</t>
+  </si>
+  <si>
+    <t>Frequency - At every section of pipe installed.</t>
   </si>
 </sst>
 </file>
@@ -220,7 +739,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +937,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -579,12 +1104,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,47 +1533,2424 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
